--- a/RAK3172-Breakout-Breakout-BOM.xlsx
+++ b/RAK3172-Breakout-Breakout-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charles/OneDrive/devt/github/_Lora/RAK3172-Breakout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B59802-E22C-7847-A0E3-78FF8E141399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDA0C9-D65D-4141-8208-A658A2AE1375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15080" yWindow="3960" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
